--- a/pics_to_discuss/bxyl_pics/bxyl-TS_arc_group_WRMSD.xlsx
+++ b/pics_to_discuss/bxyl_pics/bxyl-TS_arc_group_WRMSD.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\justi\Desktop\pics_to_discuss\bxyl_pics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\justi\Desktop\Winter 2017\Research\codes\python\qm_utils\pucker_prog_data\pics_to_discuss\bxyl_pics\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11985" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16815" windowHeight="9435" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="bxyl-TS_arc_group_WRMSD" sheetId="1" r:id="rId1"/>
@@ -20,9 +20,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="44">
   <si>
-    <t>pucker</t>
+    <t>method</t>
   </si>
   <si>
     <t>REFERENCE</t>
@@ -1830,8 +1830,8 @@
       <c r="D3" s="3">
         <v>3.066E-2</v>
       </c>
-      <c r="E3" s="3">
-        <v>5.9249999999999997E-2</v>
+      <c r="E3" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="F3" s="3">
         <v>1.225E-2</v>
@@ -1889,7 +1889,7 @@
         <v>9</v>
       </c>
       <c r="E5" s="3">
-        <v>5.9520000000000003E-2</v>
+        <v>8.0360000000000001E-2</v>
       </c>
       <c r="F5" s="3">
         <v>6.2129999999999998E-2</v>
@@ -1917,8 +1917,8 @@
       <c r="D6" s="3">
         <v>4.47E-3</v>
       </c>
-      <c r="E6" s="3">
-        <v>0.39724999999999999</v>
+      <c r="E6" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="F6" s="3">
         <v>0.41119</v>
@@ -1947,7 +1947,7 @@
         <v>0.13769999999999999</v>
       </c>
       <c r="E7" s="3">
-        <v>0.38896999999999998</v>
+        <v>0.39609</v>
       </c>
       <c r="F7" s="3">
         <v>0.17660999999999999</v>
@@ -2005,7 +2005,7 @@
         <v>5.4449999999999998E-2</v>
       </c>
       <c r="E9" s="3">
-        <v>7.8939999999999996E-2</v>
+        <v>5.8299999999999998E-2</v>
       </c>
       <c r="F9" s="3">
         <v>0.18986</v>
@@ -2092,7 +2092,7 @@
         <v>4.4670000000000001E-2</v>
       </c>
       <c r="E12" s="3">
-        <v>0.13058</v>
+        <v>0.16500000000000001</v>
       </c>
       <c r="F12" s="3">
         <v>9.8229999999999998E-2</v>
@@ -2121,7 +2121,7 @@
         <v>3.567E-2</v>
       </c>
       <c r="E13" s="3">
-        <v>8.1059999999999993E-2</v>
+        <v>5.0860000000000002E-2</v>
       </c>
       <c r="F13" s="3">
         <v>0.10477</v>
@@ -2150,7 +2150,7 @@
         <v>0.42613000000000001</v>
       </c>
       <c r="E14" s="3">
-        <v>0.36885000000000001</v>
+        <v>0.26338</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>9</v>
@@ -2295,7 +2295,7 @@
         <v>1.592E-2</v>
       </c>
       <c r="E19" s="3">
-        <v>0.16941000000000001</v>
+        <v>0.13578999999999999</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>9</v>
@@ -2324,7 +2324,7 @@
         <v>8.0560000000000007E-2</v>
       </c>
       <c r="E20" s="3">
-        <v>0.54574999999999996</v>
+        <v>0.52854999999999996</v>
       </c>
       <c r="F20" s="3">
         <v>0.13428000000000001</v>
@@ -2469,7 +2469,7 @@
         <v>2.436E-2</v>
       </c>
       <c r="E25" s="3">
-        <v>3.8760000000000003E-2</v>
+        <v>7.1239999999999998E-2</v>
       </c>
       <c r="F25" s="3">
         <v>0.26704</v>
@@ -2498,7 +2498,7 @@
         <v>1.558E-2</v>
       </c>
       <c r="E26" s="3">
-        <v>6.1890000000000001E-2</v>
+        <v>4.233E-2</v>
       </c>
       <c r="F26" s="3">
         <v>3.1329999999999997E-2</v>
@@ -2527,7 +2527,7 @@
         <v>3.1570000000000001E-2</v>
       </c>
       <c r="E27" s="3">
-        <v>0.11491999999999999</v>
+        <v>0.10364</v>
       </c>
       <c r="F27" s="3">
         <v>0.10578</v>
@@ -2556,7 +2556,7 @@
         <v>3.0169999999999999E-2</v>
       </c>
       <c r="E28" s="3">
-        <v>0.1138</v>
+        <v>9.2520000000000005E-2</v>
       </c>
       <c r="F28" s="3">
         <v>6.8760000000000002E-2</v>
@@ -2584,8 +2584,8 @@
       <c r="D29" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E29" s="3" t="s">
-        <v>9</v>
+      <c r="E29" s="3">
+        <v>0.19819000000000001</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>9</v>
@@ -2672,7 +2672,7 @@
         <v>2.843E-2</v>
       </c>
       <c r="E32" s="3">
-        <v>7.8539999999999999E-2</v>
+        <v>6.4979999999999996E-2</v>
       </c>
       <c r="F32" s="3">
         <v>7.0690000000000003E-2</v>
@@ -2701,7 +2701,7 @@
         <v>4.1209999999999997E-2</v>
       </c>
       <c r="E33" s="3">
-        <v>3.0259999999999999E-2</v>
+        <v>0.10392999999999999</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>9</v>
@@ -2730,7 +2730,7 @@
         <v>0.20399999999999999</v>
       </c>
       <c r="E34" s="3">
-        <v>0.17444999999999999</v>
+        <v>0.21881</v>
       </c>
       <c r="F34" s="3">
         <v>0.14777000000000001</v>
@@ -3636,26 +3636,26 @@
       <c r="B5" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="9">
-        <v>5.9249999999999997E-2</v>
+      <c r="C5" s="9" t="s">
+        <v>9</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>9</v>
       </c>
       <c r="E5" s="9">
-        <v>5.9520000000000003E-2</v>
-      </c>
-      <c r="F5" s="9">
-        <v>0.39724999999999999</v>
+        <v>8.0360000000000001E-2</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>9</v>
       </c>
       <c r="G5" s="9">
-        <v>0.38896999999999998</v>
+        <v>0.39609</v>
       </c>
       <c r="H5" s="9" t="s">
         <v>9</v>
       </c>
       <c r="I5" s="9">
-        <v>7.8939999999999996E-2</v>
+        <v>5.8299999999999998E-2</v>
       </c>
       <c r="J5" s="9" t="s">
         <v>9</v>
@@ -3664,13 +3664,13 @@
         <v>9</v>
       </c>
       <c r="L5" s="9">
-        <v>0.13058</v>
+        <v>0.16500000000000001</v>
       </c>
       <c r="M5" s="9">
-        <v>8.1059999999999993E-2</v>
+        <v>5.0860000000000002E-2</v>
       </c>
       <c r="N5" s="9">
-        <v>0.36885000000000001</v>
+        <v>0.26338</v>
       </c>
       <c r="O5" s="9" t="s">
         <v>9</v>
@@ -3685,10 +3685,10 @@
         <v>9</v>
       </c>
       <c r="S5" s="9">
-        <v>0.16941000000000001</v>
+        <v>0.13578999999999999</v>
       </c>
       <c r="T5" s="9">
-        <v>0.54574999999999996</v>
+        <v>0.52854999999999996</v>
       </c>
       <c r="U5" s="9" t="s">
         <v>9</v>
@@ -3703,19 +3703,19 @@
         <v>9</v>
       </c>
       <c r="Y5" s="9">
-        <v>3.8760000000000003E-2</v>
+        <v>7.1239999999999998E-2</v>
       </c>
       <c r="Z5" s="9">
-        <v>6.1890000000000001E-2</v>
+        <v>4.233E-2</v>
       </c>
       <c r="AA5" s="9">
-        <v>0.11491999999999999</v>
+        <v>0.10364</v>
       </c>
       <c r="AB5" s="9">
-        <v>0.1138</v>
-      </c>
-      <c r="AC5" s="9" t="s">
-        <v>9</v>
+        <v>9.2520000000000005E-2</v>
+      </c>
+      <c r="AC5" s="9">
+        <v>0.19819000000000001</v>
       </c>
       <c r="AD5" s="9" t="s">
         <v>9</v>
@@ -3724,13 +3724,13 @@
         <v>9</v>
       </c>
       <c r="AF5" s="9">
-        <v>7.8539999999999999E-2</v>
+        <v>6.4979999999999996E-2</v>
       </c>
       <c r="AG5" s="9">
-        <v>3.0259999999999999E-2</v>
+        <v>0.10392999999999999</v>
       </c>
       <c r="AH5" s="9">
-        <v>0.17444999999999999</v>
+        <v>0.21881</v>
       </c>
       <c r="AI5" s="10" t="s">
         <v>9</v>
